--- a/surya_punctuation_4_30/surya_results_punctuation.xlsx
+++ b/surya_punctuation_4_30/surya_results_punctuation.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Surya\Google Drive\Operation\IZANAMI\2_macroevolution\surya_punctuation_4_30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s71z662\Documents\Emergency\IZANAMI2\2_macroevolution\surya_punctuation_4_30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20328A4C-094A-492B-A118-9A159226D330}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" activeTab="1" xr2:uid="{A29C0B7E-6BD4-4D3F-B20E-4D7D98D80CA9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
     <sheet name="results" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={595A8741-3CB8-4DC6-86A0-2ECD1F9D334B}</author>
     <author>tc={4992A8AF-FFDD-4965-952F-230D2384B795}</author>
@@ -40,36 +39,72 @@
     <author>tc={FA3F6A17-A51A-4CBD-8C41-34C871AE34C5}</author>
   </authors>
   <commentList>
-    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{595A8741-3CB8-4DC6-86A0-2ECD1F9D334B}">
+    <comment ref="F14" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This intercept value is nonsensical.</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F15" authorId="1" shapeId="0" xr:uid="{4992A8AF-FFDD-4965-952F-230D2384B795}">
+    <comment ref="F15" authorId="1" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This intercept value is nonsensical.</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="2" shapeId="0" xr:uid="{BC9D21DD-94F7-4123-B96E-4C0E22AAC288}">
+    <comment ref="F16" authorId="2" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This intercept value is nonsensical.</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="3" shapeId="0" xr:uid="{FA3F6A17-A51A-4CBD-8C41-34C871AE34C5}">
+    <comment ref="F17" authorId="3" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This intercept value is nonsensical.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -370,12 +405,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,6 +468,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -454,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -476,6 +516,9 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,19 +855,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65725C74-E320-49C2-9041-7CC34A4B5CCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="97.40625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -832,7 +875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -840,7 +883,7 @@
         <v>43961</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -848,7 +891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -856,7 +899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -864,12 +907,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:2">
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -877,32 +920,32 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:2">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:2">
       <c r="B11" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:2">
       <c r="B12" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:2">
       <c r="B13" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:2">
       <c r="B14" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -910,7 +953,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>67</v>
       </c>
@@ -918,7 +961,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -926,7 +969,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -934,7 +977,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -942,7 +985,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -950,7 +993,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
@@ -958,7 +1001,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
@@ -966,7 +1009,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
@@ -974,7 +1017,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
@@ -982,7 +1025,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
@@ -990,7 +1033,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
@@ -998,7 +1041,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
@@ -1006,7 +1049,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
         <v>40</v>
       </c>
@@ -1014,7 +1057,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
         <v>82</v>
       </c>
@@ -1022,7 +1065,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
         <v>83</v>
       </c>
@@ -1030,7 +1073,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
         <v>1</v>
       </c>
@@ -1038,7 +1081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -1046,7 +1089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
         <v>89</v>
       </c>
@@ -1054,7 +1097,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
@@ -1062,7 +1105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
         <v>18</v>
       </c>
@@ -1078,7 +1121,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -1094,49 +1137,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AACDFB8-7AE7-4540-B402-8A2C562F39AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.04296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.40625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.76953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.76953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="35" width="5.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.76953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="35" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:40" s="2" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>64</v>
       </c>
@@ -1255,7 +1297,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:40" s="10" customFormat="1">
       <c r="A2" s="10" t="s">
         <v>66</v>
       </c>
@@ -1269,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="9">
-        <v>7.1151920000000004</v>
+        <v>5.1716510000000002E-4</v>
       </c>
       <c r="I2" s="1"/>
       <c r="K2" s="1"/>
@@ -1279,22 +1321,25 @@
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="9">
-        <v>9.1440000000000001</v>
+        <v>0</v>
       </c>
       <c r="U2" s="13"/>
       <c r="V2" s="13">
-        <v>4.4367900000000002E-2</v>
+        <v>1.9055129999999999E-6</v>
       </c>
       <c r="W2" s="13"/>
-      <c r="AK2" s="10">
-        <v>-11732.52</v>
-      </c>
-      <c r="AL2" s="10">
-        <v>23481.919999999998</v>
-      </c>
-      <c r="AM2" s="9"/>
-    </row>
-    <row r="3" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AK2" s="9">
+        <v>87253.41</v>
+      </c>
+      <c r="AL2" s="9">
+        <v>-174488</v>
+      </c>
+      <c r="AM2" s="9">
+        <f>AL2-AL5</f>
+        <v>144316.40000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" s="6" customFormat="1">
       <c r="A3" s="6" t="s">
         <v>66</v>
       </c>
@@ -1308,30 +1353,33 @@
         <v>1</v>
       </c>
       <c r="F3" s="7">
-        <v>12.05444</v>
+        <v>7.9332839999999996E-4</v>
       </c>
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
       <c r="M3" s="1"/>
       <c r="O3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="T3" s="7">
-        <v>7.343</v>
+      <c r="T3" s="9">
+        <v>0</v>
       </c>
       <c r="U3" s="11"/>
       <c r="V3" s="11">
-        <v>0.1541537</v>
+        <v>7.4934670000000001E-6</v>
       </c>
       <c r="W3" s="11"/>
-      <c r="AK3" s="7">
-        <v>17544.09</v>
-      </c>
-      <c r="AL3" s="6">
-        <v>-35071.29</v>
-      </c>
-      <c r="AM3" s="7"/>
-    </row>
-    <row r="4" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AK3" s="9">
+        <v>156002.79999999999</v>
+      </c>
+      <c r="AL3" s="7">
+        <v>-311986.7</v>
+      </c>
+      <c r="AM3" s="7">
+        <f>AL3-AL5</f>
+        <v>6817.7000000000116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" s="10" customFormat="1">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
@@ -1345,10 +1393,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="9">
-        <v>7.5330000000000004</v>
+        <v>1.857657E-4</v>
       </c>
       <c r="G4" s="9">
-        <v>-0.02</v>
+        <v>2.4785300000000001E-6</v>
       </c>
       <c r="I4" s="1"/>
       <c r="K4" s="1"/>
@@ -1356,29 +1404,32 @@
       <c r="O4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="T4" s="9">
-        <v>9.1199999999999992</v>
+        <v>0</v>
       </c>
       <c r="U4" s="13">
-        <v>3.0000000000000001E-3</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="V4" s="13">
-        <v>0.12473578</v>
+        <v>2.2319499999999999E-6</v>
       </c>
       <c r="W4" s="13">
-        <v>5.5593825048564803E-3</v>
+        <v>1.47251E-8</v>
       </c>
       <c r="AJ4" s="15">
-        <v>3.3970045202609301E-4</v>
-      </c>
-      <c r="AK4" s="10">
-        <v>-11730.37</v>
-      </c>
-      <c r="AL4" s="10">
-        <v>23486.07</v>
-      </c>
-      <c r="AM4" s="9"/>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.6">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="9">
+        <v>94609.36</v>
+      </c>
+      <c r="AL4" s="9">
+        <v>-189190.39999999999</v>
+      </c>
+      <c r="AM4" s="9">
+        <f>AL4-AL5</f>
+        <v>129614.00000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
       <c r="A5" s="6" t="s">
         <v>66</v>
       </c>
@@ -1391,36 +1442,38 @@
       <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="7">
-        <v>12.054</v>
+      <c r="F5" s="17">
+        <v>3.7314044358449601E-4</v>
       </c>
       <c r="G5" s="7">
-        <v>0</v>
+        <v>6.9967000000000003E-6</v>
       </c>
       <c r="T5" s="9">
-        <v>7.3440000000000003</v>
+        <v>0</v>
       </c>
       <c r="U5" s="11">
-        <v>-2.669</v>
+        <v>-15.534000000000001</v>
       </c>
       <c r="V5" s="13">
-        <v>0.15417027999999999</v>
+        <v>7.1813519999999999E-6</v>
       </c>
       <c r="W5" s="11">
-        <v>3.5177777389754598E-8</v>
+        <v>7.3108999999999996E-8</v>
       </c>
       <c r="AJ5" s="12">
-        <v>0.99995727463807904</v>
-      </c>
-      <c r="AK5" s="9">
-        <v>17527.84</v>
-      </c>
-      <c r="AL5" s="6">
-        <v>-35030.36</v>
-      </c>
-      <c r="AM5" s="7"/>
-    </row>
-    <row r="6" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="17">
+        <v>159416.29999999999</v>
+      </c>
+      <c r="AL5" s="7">
+        <v>-318804.40000000002</v>
+      </c>
+      <c r="AM5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" s="10" customFormat="1">
       <c r="A6" s="10" t="s">
         <v>66</v>
       </c>
@@ -1434,10 +1487,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="9">
-        <v>9.4456629999999997</v>
+        <v>2.0925039999999999E-4</v>
       </c>
       <c r="G6" s="9">
-        <v>-7.1936700000000006E-2</v>
+        <v>2.4066099999999998E-6</v>
       </c>
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
@@ -1445,36 +1498,39 @@
       <c r="O6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="9">
-        <v>-5.9114960000000005E-10</v>
+        <v>0</v>
       </c>
       <c r="S6" s="9"/>
       <c r="T6" s="9">
-        <v>8.3719999999999999</v>
+        <v>0</v>
       </c>
       <c r="U6" s="13">
-        <v>8.5000000000000006E-2</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="V6" s="13">
-        <v>0.15190029999999999</v>
+        <v>2.6502239999999999E-6</v>
       </c>
       <c r="W6" s="13">
-        <v>5.9052059999999996E-3</v>
+        <v>1.5249E-8</v>
       </c>
       <c r="AH6" s="13">
-        <v>2.898332E-11</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="15">
-        <v>1.2592210000000001E-33</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="9">
-        <v>-11554.47</v>
+        <v>94703.13</v>
       </c>
       <c r="AL6" s="9">
-        <v>23142.71</v>
-      </c>
-      <c r="AM6" s="9"/>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.6">
+        <v>-189368.6</v>
+      </c>
+      <c r="AM6" s="9">
+        <f>AL6-AL5</f>
+        <v>129435.80000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
       <c r="A7" s="6" t="s">
         <v>66</v>
       </c>
@@ -1488,44 +1544,47 @@
         <v>1</v>
       </c>
       <c r="F7" s="3">
-        <v>12.05444</v>
+        <v>3.7888089999999999E-4</v>
       </c>
       <c r="G7" s="3">
-        <v>-1.8996260000000002E-12</v>
+        <v>6.9750000000000001E-6</v>
       </c>
       <c r="H7" s="3"/>
       <c r="R7" s="7">
-        <v>-1.964177E-22</v>
+        <v>-2.209851E-15</v>
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="9">
-        <v>7.3460000000000001</v>
+        <v>0</v>
       </c>
       <c r="U7" s="16">
-        <v>-2.669</v>
+        <v>-15.554</v>
       </c>
       <c r="V7" s="13">
-        <v>0.15418689999999999</v>
+        <v>7.290656E-6</v>
       </c>
       <c r="W7" s="16">
-        <v>3.518118E-8</v>
+        <v>7.3216039999999998E-8</v>
       </c>
       <c r="AH7" s="13">
-        <v>2.6084919999999998E-17</v>
+        <v>4.9601269999999996E-16</v>
       </c>
       <c r="AJ7" s="12">
-        <v>0.99995690000000004</v>
-      </c>
-      <c r="AK7" s="7">
-        <v>17490.689999999999</v>
+        <v>0</v>
+      </c>
+      <c r="AK7" s="9">
+        <v>159391.9</v>
       </c>
       <c r="AL7" s="3">
-        <v>-34947.61</v>
-      </c>
-      <c r="AM7" s="7"/>
+        <v>-318746.09999999998</v>
+      </c>
+      <c r="AM7" s="7">
+        <f>AL7-AL5</f>
+        <v>58.300000000046566</v>
+      </c>
       <c r="AN7" s="3"/>
     </row>
-    <row r="8" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:40" s="10" customFormat="1">
       <c r="A8" s="10" t="s">
         <v>66</v>
       </c>
@@ -1539,10 +1598,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="9">
-        <v>10.098179999999999</v>
+        <v>2.2924800000000001E-4</v>
       </c>
       <c r="G8" s="9">
-        <v>-0.1046285</v>
+        <v>2.1807300000000001E-6</v>
       </c>
       <c r="I8" s="1"/>
       <c r="K8" s="1"/>
@@ -1550,41 +1609,44 @@
       <c r="O8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="9">
-        <v>-9.6248790000000001E-10</v>
+        <v>-4.400099E-14</v>
       </c>
       <c r="S8" s="9">
-        <v>2.331059E-11</v>
+        <v>3.6986490000000001E-16</v>
       </c>
       <c r="T8" s="9">
-        <v>8.2919999999999998</v>
+        <v>0</v>
       </c>
       <c r="U8" s="13">
-        <v>9.4E-2</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="V8" s="13">
-        <v>0.17934739999999999</v>
+        <v>2.7941570000000002E-6</v>
       </c>
       <c r="W8" s="13">
-        <v>7.6100509999999996E-3</v>
+        <v>1.879261E-8</v>
       </c>
       <c r="AH8" s="13">
-        <v>6.2030549999999999E-11</v>
+        <v>1.7094540000000001E-15</v>
       </c>
       <c r="AI8" s="13">
-        <v>3.44733E-12</v>
+        <v>1.8515530000000001E-17</v>
       </c>
       <c r="AJ8" s="15">
-        <v>3.4448570000000002E-42</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="9">
-        <v>-11557.19</v>
+        <v>94861.92</v>
       </c>
       <c r="AL8" s="9">
-        <v>23156.59</v>
-      </c>
-      <c r="AM8" s="9"/>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.6">
+        <v>-189676.7</v>
+      </c>
+      <c r="AM8" s="9">
+        <f>AL8-AL5</f>
+        <v>129127.70000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
@@ -1598,48 +1660,51 @@
         <v>1</v>
       </c>
       <c r="F9" s="3">
-        <v>12.05444</v>
+        <v>3.8814570000000003E-4</v>
       </c>
       <c r="G9" s="3">
-        <v>-1.9432429999999998E-12</v>
+        <v>6.9184419999999996E-6</v>
       </c>
       <c r="R9" s="7">
-        <v>-1.0338239999999999E-21</v>
+        <v>-6.7540999999999998E-15</v>
       </c>
       <c r="S9" s="7">
-        <v>3.6832330000000002E-23</v>
+        <v>4.6845449999999999E-17</v>
       </c>
       <c r="T9" s="9">
-        <v>7.3479999999999999</v>
+        <v>0</v>
       </c>
       <c r="U9" s="16">
-        <v>-2.669</v>
+        <v>-15.602</v>
       </c>
       <c r="V9" s="13">
-        <v>0.15420349999999999</v>
+        <v>7.4348149999999997E-6</v>
       </c>
       <c r="W9" s="16">
-        <v>3.5419460000000002E-8</v>
+        <v>7.3685779999999998E-8</v>
       </c>
       <c r="AH9" s="11">
-        <v>8.2359770000000001E-17</v>
+        <v>8.9090329999999994E-16</v>
       </c>
       <c r="AI9" s="11">
-        <v>3.4359679999999999E-18</v>
+        <v>7.6340710000000004E-18</v>
       </c>
       <c r="AJ9" s="12">
-        <v>0.99995619999999996</v>
-      </c>
-      <c r="AK9" s="7">
-        <v>17451.400000000001</v>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="9">
+        <v>159372.20000000001</v>
       </c>
       <c r="AL9" s="3">
-        <v>-34860.58</v>
-      </c>
-      <c r="AM9" s="7"/>
+        <v>-318697.3</v>
+      </c>
+      <c r="AM9" s="7">
+        <f>AL9-AL5</f>
+        <v>107.10000000003492</v>
+      </c>
       <c r="AN9" s="3"/>
     </row>
-    <row r="10" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:40" s="10" customFormat="1">
       <c r="A10" s="10" t="s">
         <v>66</v>
       </c>
@@ -1656,71 +1721,74 @@
         <v>0</v>
       </c>
       <c r="F10" s="9">
-        <v>10.314819999999999</v>
+        <v>2.5980529999999999E-4</v>
       </c>
       <c r="G10" s="9">
-        <v>-7.7383999999999994E-2</v>
+        <v>2.5402030000000001E-6</v>
       </c>
       <c r="H10" s="9">
-        <v>-3.5592549999999998</v>
+        <v>-1.4404629999999999E-4</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="9">
-        <v>-1.4064639999999999</v>
+        <v>-6.7508089999999998E-5</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="9">
-        <v>-0.71697999999999995</v>
+        <v>-1.1435510000000001E-4</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="9">
-        <v>-1.5222640000000001</v>
+        <v>-4.9816379999999998E-5</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="9">
-        <v>-0.36386499999999999</v>
+        <v>-2.3471800000000001E-5</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="T10" s="9">
-        <v>8.2430000000000003</v>
+        <v>0</v>
       </c>
       <c r="U10" s="13">
-        <v>0.1</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="V10" s="13">
-        <v>0.29478293100000003</v>
+        <v>1.1508439999999999E-5</v>
       </c>
       <c r="W10" s="13">
-        <v>5.9789459999999997E-3</v>
+        <v>1.622706E-8</v>
       </c>
       <c r="X10" s="13">
-        <v>0.28278828900000003</v>
+        <v>1.2011510000000001E-5</v>
       </c>
       <c r="Z10" s="13">
-        <v>0.26886333099999998</v>
+        <v>1.142883E-5</v>
       </c>
       <c r="AB10" s="13">
-        <v>0.272947628</v>
+        <v>1.156889E-5</v>
       </c>
       <c r="AD10" s="13">
-        <v>0.33484382600000001</v>
+        <v>1.176626E-5</v>
       </c>
       <c r="AE10" s="13"/>
       <c r="AF10" s="13">
-        <v>0.37223751500000002</v>
+        <v>1.5424799999999998E-5</v>
       </c>
       <c r="AJ10" s="15">
-        <v>1.1521590000000001E-37</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="9">
-        <v>-11496.96</v>
+        <v>94943.1</v>
       </c>
       <c r="AL10" s="9">
-        <v>23061.47</v>
-      </c>
-      <c r="AM10" s="9"/>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.6">
+        <v>-189810.8</v>
+      </c>
+      <c r="AM10" s="9">
+        <f>AL10-AL5</f>
+        <v>128993.60000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
       <c r="A11" s="6" t="s">
         <v>66</v>
       </c>
@@ -1737,72 +1805,75 @@
         <v>1</v>
       </c>
       <c r="F11" s="7">
-        <v>12.05444</v>
+        <v>3.696956E-4</v>
       </c>
       <c r="G11" s="7">
-        <v>-1.9085530000000001E-12</v>
+        <v>6.9759800000000001E-6</v>
       </c>
       <c r="H11" s="9">
-        <v>-2.468867E-12</v>
+        <v>-1.8695169999999999E-7</v>
       </c>
       <c r="J11" s="9">
-        <v>-1.7581859999999999E-12</v>
+        <v>5.2161010000000002E-6</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="9">
-        <v>-1.543247E-12</v>
+        <v>8.6255879999999997E-6</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="9">
-        <v>-1.5785169999999999E-12</v>
+        <v>1.1238010000000001E-5</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="9">
-        <v>-6.5612249999999996E-13</v>
+        <v>9.3781680000000002E-6</v>
       </c>
       <c r="T11" s="9">
-        <v>7.3520000000000003</v>
+        <v>0</v>
       </c>
       <c r="U11" s="16">
-        <v>-2.669</v>
+        <v>-15.532</v>
       </c>
       <c r="V11" s="13">
-        <v>0.15425340000000001</v>
+        <v>8.4223329999999992E-6</v>
       </c>
       <c r="W11" s="11">
-        <v>3.5212030000000001E-8</v>
+        <v>7.3219669999999997E-8</v>
       </c>
       <c r="X11" s="13">
-        <v>2.5127180000000002E-7</v>
+        <v>4.7235480000000002E-6</v>
       </c>
       <c r="Z11" s="13">
-        <v>2.3143589999999999E-7</v>
+        <v>4.2843120000000001E-6</v>
       </c>
       <c r="AA11" s="13"/>
       <c r="AB11" s="13">
-        <v>2.4024539999999999E-7</v>
+        <v>4.4174009999999997E-6</v>
       </c>
       <c r="AC11" s="13"/>
       <c r="AD11" s="13">
-        <v>2.6997389999999999E-7</v>
+        <v>4.477709E-6</v>
       </c>
       <c r="AE11" s="13"/>
       <c r="AF11" s="13">
-        <v>2.8392080000000001E-7</v>
+        <v>5.6532700000000002E-6</v>
       </c>
       <c r="AJ11" s="12">
-        <v>0.99995679999999998</v>
-      </c>
-      <c r="AK11" s="7">
-        <v>17453.93</v>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="9">
+        <v>159372.1</v>
       </c>
       <c r="AL11" s="7">
-        <v>-34840.33</v>
-      </c>
-      <c r="AM11" s="7"/>
+        <v>-318668.79999999999</v>
+      </c>
+      <c r="AM11" s="7">
+        <f>AL11-AL5</f>
+        <v>135.60000000003492</v>
+      </c>
       <c r="AN11" s="3"/>
     </row>
-    <row r="12" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:40" s="10" customFormat="1">
       <c r="A12" s="10" t="s">
         <v>66</v>
       </c>
@@ -1819,98 +1890,101 @@
         <v>0</v>
       </c>
       <c r="F12" s="9">
-        <v>12.52266653</v>
+        <v>2.59836E-4</v>
       </c>
       <c r="G12" s="9">
-        <v>-0.17372312000000001</v>
+        <v>2.5399450000000002E-6</v>
       </c>
       <c r="H12" s="9">
-        <v>-7.0527974000000002</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.18793129</v>
+        <v>-2.1081189999999999E-4</v>
+      </c>
+      <c r="I12" s="9">
+        <v>9.642253000000001E-7</v>
       </c>
       <c r="J12" s="9">
-        <v>-2.25853196</v>
-      </c>
-      <c r="K12" s="3">
-        <v>3.4825479999999999E-2</v>
+        <v>-9.6016209999999998E-5</v>
+      </c>
+      <c r="K12" s="9">
+        <v>2.422323E-7</v>
       </c>
       <c r="L12" s="9">
-        <v>-3.1320450599999998</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0.10479305999999999</v>
+        <v>-4.1730400000000003E-5</v>
+      </c>
+      <c r="M12" s="9">
+        <v>-3.9020700000000002E-7</v>
       </c>
       <c r="N12" s="9">
-        <v>-4.6106573300000004</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0.14325590999999999</v>
+        <v>-2.212399E-5</v>
+      </c>
+      <c r="O12" s="9">
+        <v>-2.1504050000000001E-7</v>
       </c>
       <c r="P12" s="9">
-        <v>-0.30643763000000002</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>-2.3688460000000001E-2</v>
-      </c>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
+        <v>-8.0084030000000003E-5</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>3.971795E-7</v>
+      </c>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
       <c r="T12" s="9">
-        <v>8.0630000000000006</v>
+        <v>0</v>
       </c>
       <c r="U12" s="13">
-        <v>0.12</v>
-      </c>
-      <c r="V12" s="10">
-        <v>0.88944003000000005</v>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="V12" s="13">
+        <v>2.4710249999999999E-5</v>
       </c>
       <c r="W12" s="13">
-        <v>3.7140289999999999E-2</v>
+        <v>1.8516930000000001E-7</v>
       </c>
       <c r="X12" s="13">
-        <v>0.91185693000000001</v>
+        <v>2.5615580000000001E-5</v>
       </c>
       <c r="Y12" s="13">
-        <v>3.923658E-2</v>
+        <v>2.019859E-7</v>
       </c>
       <c r="Z12" s="13">
-        <v>0.91939926999999999</v>
+        <v>2.4892290000000002E-5</v>
       </c>
       <c r="AA12" s="13">
-        <v>3.850489E-2</v>
+        <v>1.865657E-7</v>
       </c>
       <c r="AB12" s="13">
-        <v>0.92711790000000005</v>
+        <v>2.530468E-5</v>
       </c>
       <c r="AC12" s="13">
-        <v>3.8510700000000002E-2</v>
+        <v>1.871802E-7</v>
       </c>
       <c r="AD12" s="13">
-        <v>1.01886049</v>
+        <v>2.5589149999999999E-5</v>
       </c>
       <c r="AE12" s="13">
-        <v>4.4272499999999999E-2</v>
+        <v>1.9076139999999999E-7</v>
       </c>
       <c r="AF12" s="13">
-        <v>1.2174767799999999</v>
-      </c>
-      <c r="AG12" s="10">
-        <v>5.59283E-2</v>
+        <v>3.9326529999999999E-5</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>2.7419069999999999E-7</v>
       </c>
       <c r="AI12" s="13"/>
       <c r="AJ12" s="15">
-        <v>2.9868159999999999E-6</v>
+        <v>1.6445059999999999E-42</v>
       </c>
       <c r="AK12" s="9">
-        <v>-11457.3</v>
+        <v>95104.48</v>
       </c>
       <c r="AL12" s="9">
-        <v>23024.33</v>
-      </c>
-      <c r="AM12" s="9"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.6">
+        <v>-190086.39999999999</v>
+      </c>
+      <c r="AM12" s="9">
+        <f>AL12-AL5</f>
+        <v>128718.00000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
       <c r="A13" s="6" t="s">
         <v>66</v>
       </c>
@@ -1927,100 +2001,103 @@
         <v>1</v>
       </c>
       <c r="F13" s="7">
-        <v>12.05444</v>
+        <v>3.6801960000000002E-4</v>
       </c>
       <c r="G13" s="7">
-        <v>-2.4095729999999999E-12</v>
+        <v>7.0125399999999996E-6</v>
       </c>
       <c r="H13" s="9">
-        <v>-1.8935220000000001E-11</v>
+        <v>-1.195471E-5</v>
       </c>
       <c r="I13" s="3">
-        <v>6.5548909999999995E-13</v>
+        <v>1.4986420000000001E-7</v>
       </c>
       <c r="J13" s="9">
-        <v>-1.437768E-11</v>
+        <v>1.313986E-5</v>
       </c>
       <c r="K13" s="3">
-        <v>4.8886359999999996E-13</v>
+        <v>-6.3262500000000002E-8</v>
       </c>
       <c r="L13" s="9">
-        <v>-1.40607E-11</v>
+        <v>2.2451439999999999E-5</v>
       </c>
       <c r="M13" s="3">
-        <v>4.8100979999999997E-13</v>
+        <v>-9.6933969999999997E-8</v>
       </c>
       <c r="N13" s="9">
-        <v>-1.571998E-11</v>
+        <v>1.847579E-5</v>
       </c>
       <c r="O13" s="3">
-        <v>5.5010599999999998E-13</v>
+        <v>-6.004741E-8</v>
       </c>
       <c r="P13" s="9">
-        <v>-9.5452489999999994E-12</v>
+        <v>1.432804E-5</v>
       </c>
       <c r="Q13" s="3">
-        <v>3.1909749999999999E-13</v>
+        <v>-4.0595779999999998E-8</v>
       </c>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9">
-        <v>7.36</v>
+        <v>0</v>
       </c>
       <c r="U13" s="11">
-        <v>-2.669</v>
+        <v>-15.581</v>
       </c>
       <c r="V13" s="13">
-        <v>0.15433659999999999</v>
+        <v>1.213824E-5</v>
       </c>
       <c r="W13" s="11">
-        <v>5.6402760000000002E-8</v>
+        <v>1.010417E-7</v>
       </c>
       <c r="X13" s="13">
-        <v>1.2232410000000001E-6</v>
+        <v>1.029756E-5</v>
       </c>
       <c r="Y13" s="13">
-        <v>4.6699570000000003E-8</v>
+        <v>7.6788790000000006E-8</v>
       </c>
       <c r="Z13" s="13">
-        <v>1.1921369999999999E-6</v>
+        <v>9.7273659999999997E-6</v>
       </c>
       <c r="AA13" s="13">
-        <v>4.5012440000000001E-8</v>
+        <v>7.0272630000000004E-8</v>
       </c>
       <c r="AB13" s="13">
-        <v>1.211324E-6</v>
+        <v>1.004215E-5</v>
       </c>
       <c r="AC13" s="13">
-        <v>4.5488249999999997E-8</v>
+        <v>7.1318869999999997E-8</v>
       </c>
       <c r="AD13" s="13">
-        <v>1.272067E-6</v>
+        <v>1.012207E-5</v>
       </c>
       <c r="AE13" s="13">
-        <v>4.927333E-8</v>
+        <v>7.2757889999999993E-8</v>
       </c>
       <c r="AF13" s="13">
-        <v>1.3367630000000001E-6</v>
+        <v>1.4120179999999999E-5</v>
       </c>
       <c r="AG13" s="13">
-        <v>5.2737300000000001E-8</v>
+        <v>9.8312279999999997E-8</v>
       </c>
       <c r="AH13" s="13"/>
       <c r="AI13" s="13"/>
       <c r="AJ13" s="12">
-        <v>0.99996589999999996</v>
-      </c>
-      <c r="AK13" s="7">
-        <v>17370.57</v>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="9">
+        <v>159316.5</v>
       </c>
       <c r="AL13" s="3">
-        <v>-34631.410000000003</v>
-      </c>
-      <c r="AM13" s="7"/>
+        <v>-318510.40000000002</v>
+      </c>
+      <c r="AM13" s="7">
+        <f>AL13-AL5</f>
+        <v>294</v>
+      </c>
       <c r="AN13" s="3"/>
     </row>
-    <row r="14" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:40" s="10" customFormat="1">
       <c r="A14" s="10" t="s">
         <v>65</v>
       </c>
@@ -2060,7 +2137,7 @@
         <v>81241.06065427119</v>
       </c>
     </row>
-    <row r="15" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:40" s="6" customFormat="1">
       <c r="A15" s="6" t="s">
         <v>65</v>
       </c>
@@ -2086,7 +2163,7 @@
       </c>
       <c r="U15" s="11"/>
       <c r="AJ15" s="12"/>
-      <c r="AK15" s="7">
+      <c r="AK15" s="9">
         <v>125021.493665</v>
       </c>
       <c r="AL15" s="7">
@@ -2097,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:40" s="10" customFormat="1">
       <c r="A16" s="10" t="s">
         <v>65</v>
       </c>
@@ -2150,7 +2227,7 @@
         <v>61461.756234651257</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:39">
       <c r="A17" s="6" t="s">
         <v>65</v>
       </c>
@@ -2184,7 +2261,7 @@
       <c r="AJ17" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="AK17" s="7">
+      <c r="AK17" s="9">
         <v>125021.49410900001</v>
       </c>
       <c r="AL17" s="3">

--- a/surya_punctuation_4_30/surya_results_punctuation.xlsx
+++ b/surya_punctuation_4_30/surya_results_punctuation.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s71z662\Documents\Emergency\IZANAMI2\2_macroevolution\surya_punctuation_4_30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Surya\Google Drive\Operation\IZANAMI\2_macroevolution\surya_punctuation_4_30\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB85472C-A532-448B-9AA6-3667B8DE6497}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
     <sheet name="results" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={595A8741-3CB8-4DC6-86A0-2ECD1F9D334B}</author>
     <author>tc={4992A8AF-FFDD-4965-952F-230D2384B795}</author>
@@ -39,72 +40,36 @@
     <author>tc={FA3F6A17-A51A-4CBD-8C41-34C871AE34C5}</author>
   </authors>
   <commentList>
-    <comment ref="F14" authorId="0" shapeId="0">
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This intercept value is nonsensical.</t>
-        </r>
       </text>
     </comment>
-    <comment ref="F15" authorId="1" shapeId="0">
+    <comment ref="F15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This intercept value is nonsensical.</t>
-        </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="2" shapeId="0">
+    <comment ref="F16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This intercept value is nonsensical.</t>
-        </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="3" shapeId="0">
+    <comment ref="F17" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This intercept value is nonsensical.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -405,12 +370,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -855,19 +820,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.40625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -875,7 +840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -883,7 +848,7 @@
         <v>43961</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -891,7 +856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -899,7 +864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -907,12 +872,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -920,32 +885,32 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B11" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B12" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B13" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B14" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -953,7 +918,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A16" s="2" t="s">
         <v>67</v>
       </c>
@@ -961,7 +926,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -969,7 +934,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -977,7 +942,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -985,7 +950,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -993,7 +958,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
@@ -1001,7 +966,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
@@ -1009,7 +974,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
@@ -1017,7 +982,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
@@ -1025,7 +990,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
@@ -1033,7 +998,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
@@ -1041,7 +1006,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
@@ -1049,7 +1014,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A28" s="2" t="s">
         <v>40</v>
       </c>
@@ -1057,7 +1022,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A29" s="2" t="s">
         <v>82</v>
       </c>
@@ -1065,7 +1030,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A30" s="2" t="s">
         <v>83</v>
       </c>
@@ -1073,7 +1038,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A31" s="2" t="s">
         <v>1</v>
       </c>
@@ -1081,7 +1046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -1089,7 +1054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A33" s="2" t="s">
         <v>89</v>
       </c>
@@ -1097,7 +1062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
@@ -1105,7 +1070,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
@@ -1113,7 +1078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A36" s="2" t="s">
         <v>18</v>
       </c>
@@ -1121,7 +1086,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -1137,7 +1102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1147,38 +1112,38 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="35" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="10.04296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.40625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.76953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="35" width="5.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.76953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="2" customFormat="1">
+    <row r="1" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A1" s="5" t="s">
         <v>64</v>
       </c>
@@ -1297,7 +1262,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="10" customFormat="1">
+    <row r="2" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A2" s="10" t="s">
         <v>66</v>
       </c>
@@ -1339,7 +1304,7 @@
         <v>144316.40000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="6" customFormat="1">
+    <row r="3" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A3" s="6" t="s">
         <v>66</v>
       </c>
@@ -1379,7 +1344,7 @@
         <v>6817.7000000000116</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="10" customFormat="1">
+    <row r="4" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
@@ -1429,7 +1394,7 @@
         <v>129614.00000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" ht="15" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
         <v>66</v>
       </c>
@@ -1473,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="10" customFormat="1">
+    <row r="6" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A6" s="10" t="s">
         <v>66</v>
       </c>
@@ -1530,7 +1495,7 @@
         <v>129435.80000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
         <v>66</v>
       </c>
@@ -1584,7 +1549,7 @@
       </c>
       <c r="AN7" s="3"/>
     </row>
-    <row r="8" spans="1:40" s="10" customFormat="1">
+    <row r="8" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A8" s="10" t="s">
         <v>66</v>
       </c>
@@ -1646,7 +1611,7 @@
         <v>129127.70000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
@@ -1704,7 +1669,7 @@
       </c>
       <c r="AN9" s="3"/>
     </row>
-    <row r="10" spans="1:40" s="10" customFormat="1">
+    <row r="10" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A10" s="10" t="s">
         <v>66</v>
       </c>
@@ -1788,7 +1753,7 @@
         <v>128993.60000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A11" s="6" t="s">
         <v>66</v>
       </c>
@@ -1873,7 +1838,7 @@
       </c>
       <c r="AN11" s="3"/>
     </row>
-    <row r="12" spans="1:40" s="10" customFormat="1">
+    <row r="12" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A12" s="10" t="s">
         <v>66</v>
       </c>
@@ -1984,7 +1949,7 @@
         <v>128718.00000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A13" s="6" t="s">
         <v>66</v>
       </c>
@@ -2097,7 +2062,7 @@
       </c>
       <c r="AN13" s="3"/>
     </row>
-    <row r="14" spans="1:40" s="10" customFormat="1">
+    <row r="14" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A14" s="10" t="s">
         <v>65</v>
       </c>
@@ -2137,7 +2102,7 @@
         <v>81241.06065427119</v>
       </c>
     </row>
-    <row r="15" spans="1:40" s="6" customFormat="1">
+    <row r="15" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A15" s="6" t="s">
         <v>65</v>
       </c>
@@ -2174,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" s="10" customFormat="1">
+    <row r="16" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A16" s="10" t="s">
         <v>65</v>
       </c>
@@ -2227,7 +2192,7 @@
         <v>61461.756234651257</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.6">
       <c r="A17" s="6" t="s">
         <v>65</v>
       </c>
@@ -2451,18 +2416,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2484,14 +2449,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC47B0-AA78-47A5-9B79-6FFFCCC52CA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2505,4 +2462,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>